--- a/dataingestion/data/structured_files/inventory.xlsx
+++ b/dataingestion/data/structured_files/inventory.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -46,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,27 +422,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Stock</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
@@ -574,68 +561,6 @@
         <is>
           <t>1080p webcam with noise cancellation</t>
         </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Items</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Electronics</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1389.97</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Accessories</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>109.98</v>
       </c>
     </row>
   </sheetData>
